--- a/linelist_investigations/dictionary/cleaning_rules.xlsx
+++ b/linelist_investigations/dictionary/cleaning_rules.xlsx
@@ -12,7 +12,7 @@
     <sheet name="explanations" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'cleaning_rules - must be 1st sh'!$A$1:$C$696</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'cleaning_rules - must be 1st sh'!$A$1:$C$697</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="777">
   <si>
     <t xml:space="preserve">bad_spelling</t>
   </si>
@@ -1580,6 +1580,9 @@
     <t xml:space="preserve">base_commu</t>
   </si>
   <si>
+    <t xml:space="preserve">rut148</t>
+  </si>
+  <si>
     <t xml:space="preserve">outcome</t>
   </si>
   <si>
@@ -2289,6 +2292,39 @@
   </si>
   <si>
     <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semaines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weeks</t>
   </si>
   <si>
     <t xml:space="preserve">The first sheet can be imported into R to clean data using the latest version of the RECON package linelist</t>
@@ -2486,10 +2522,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1555"/>
+  <dimension ref="A1:C790"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A762" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C780" activeCellId="0" sqref="C780"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A397" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A417" activeCellId="0" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6152,7 +6188,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="9" t="s">
         <v>291</v>
       </c>
@@ -6163,7 +6199,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
         <v>83</v>
       </c>
@@ -6174,7 +6210,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
         <v>438</v>
       </c>
@@ -7054,7 +7090,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
         <v>507</v>
       </c>
@@ -7065,400 +7101,400 @@
         <v>494</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>291</v>
+        <v>518</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>410</v>
+        <v>36</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B420" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C420" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>83</v>
+        <v>520</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B422" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C422" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B423" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="C423" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>394</v>
+        <v>521</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>83</v>
+        <v>520</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>291</v>
+        <v>394</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>408</v>
+        <v>291</v>
       </c>
       <c r="B426" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C426" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B427" s="9" t="s">
-        <v>522</v>
+        <v>408</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B428" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C428" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B428" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="C428" s="1" t="s">
+    </row>
+    <row r="429" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B429" s="9" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="429" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="B429" s="9" t="s">
-        <v>522</v>
-      </c>
       <c r="C429" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="B430" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C430" s="7" t="s">
+      <c r="B430" s="9" t="s">
         <v>523</v>
       </c>
+      <c r="C430" s="1" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="431" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="1" t="s">
-        <v>520</v>
+      <c r="A431" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>409</v>
+        <v>521</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>408</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>292</v>
+        <v>408</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="1" t="n">
-        <v>43308</v>
+      <c r="A434" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="1" t="s">
         <v>529</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="1" t="n">
+        <v>43308</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>291</v>
+        <v>530</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>375</v>
+        <v>291</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>530</v>
+        <v>375</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>530</v>
+        <v>374</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>380</v>
+        <v>46</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C443" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B443" s="1" t="s">
+    </row>
+    <row r="444" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B444" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="1" t="s">
-        <v>424</v>
+      <c r="A445" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>422</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="1" t="n">
+      <c r="A446" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>291</v>
+        <v>428</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>534</v>
+        <v>291</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7469,7 +7505,7 @@
         <v>83</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7480,40 +7516,40 @@
         <v>83</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>429</v>
+        <v>537</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>537</v>
+        <v>394</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,109 +7557,109 @@
         <v>538</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>427</v>
+        <v>539</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>539</v>
+        <v>424</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>503</v>
+        <v>422</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>503</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>503</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>291</v>
+        <v>542</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>292</v>
+        <v>503</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>505</v>
+        <v>291</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>543</v>
+        <v>292</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B466" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B466" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="C466" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7631,10 +7667,10 @@
         <v>545</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7642,54 +7678,54 @@
         <v>546</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>509</v>
+        <v>548</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7700,51 +7736,51 @@
         <v>493</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>394</v>
+        <v>550</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>292</v>
+        <v>493</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>539</v>
+        <v>394</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>550</v>
+        <v>292</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>503</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C477" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7752,10 +7788,10 @@
         <v>552</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7766,7 +7802,7 @@
         <v>503</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7777,7 +7813,7 @@
         <v>503</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7788,7 +7824,7 @@
         <v>503</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7799,7 +7835,7 @@
         <v>503</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7810,51 +7846,51 @@
         <v>503</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>291</v>
+        <v>558</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>292</v>
+        <v>503</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>505</v>
+        <v>291</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>383</v>
+        <v>505</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>558</v>
+        <v>383</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>510</v>
+        <v>292</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7865,7 +7901,7 @@
         <v>510</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7873,10 +7909,10 @@
         <v>560</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7887,29 +7923,29 @@
         <v>512</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>487</v>
+        <v>562</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>562</v>
+        <v>487</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7920,7 +7956,7 @@
         <v>493</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7931,7 +7967,7 @@
         <v>493</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7939,10 +7975,10 @@
         <v>565</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7950,65 +7986,65 @@
         <v>566</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>550</v>
+        <v>493</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>567</v>
+        <v>509</v>
       </c>
       <c r="B499" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B500" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C499" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="500" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B500" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="C500" s="1" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="6" t="s">
-        <v>569</v>
+        <v>7</v>
       </c>
       <c r="B501" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8019,7 +8055,7 @@
         <v>7</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8030,7 +8066,7 @@
         <v>7</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8038,153 +8074,153 @@
         <v>572</v>
       </c>
       <c r="B504" s="6" t="s">
-        <v>572</v>
+        <v>7</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="6" t="s">
         <v>573</v>
       </c>
       <c r="B505" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>348</v>
+        <v>574</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>574</v>
+        <v>348</v>
       </c>
       <c r="B507" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="6" t="s">
-        <v>4</v>
+      <c r="A508" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>15</v>
+        <v>573</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="6" t="s">
-        <v>575</v>
+        <v>4</v>
       </c>
       <c r="B509" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="6" t="s">
-        <v>15</v>
+        <v>576</v>
       </c>
       <c r="B510" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="6" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="B511" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="6" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B512" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="6" t="s">
-        <v>576</v>
+        <v>21</v>
       </c>
       <c r="B513" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="6" t="s">
-        <v>366</v>
+        <v>577</v>
       </c>
       <c r="B514" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="6" t="s">
-        <v>577</v>
+        <v>366</v>
       </c>
       <c r="B515" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="6" t="s">
-        <v>48</v>
+        <v>578</v>
       </c>
       <c r="B516" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="6" t="s">
-        <v>578</v>
+        <v>48</v>
       </c>
       <c r="B517" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8195,7 +8231,7 @@
         <v>15</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8206,29 +8242,29 @@
         <v>15</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="1" t="s">
+      <c r="A520" s="6" t="s">
         <v>581</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>582</v>
+        <v>15</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B521" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="B521" s="6" t="s">
-        <v>582</v>
-      </c>
       <c r="C521" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8236,54 +8272,54 @@
         <v>584</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="6" t="s">
-        <v>582</v>
+      <c r="A523" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="B523" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="1" t="s">
-        <v>585</v>
+      <c r="A524" s="6" t="s">
+        <v>583</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="6" t="s">
+      <c r="A525" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B525" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="C525" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="526" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="B526" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8291,10 +8327,10 @@
         <v>587</v>
       </c>
       <c r="B527" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8302,10 +8338,10 @@
         <v>588</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8313,10 +8349,10 @@
         <v>589</v>
       </c>
       <c r="B529" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8324,10 +8360,10 @@
         <v>590</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8335,32 +8371,32 @@
         <v>591</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="6" t="s">
+      <c r="A532" s="1" t="s">
         <v>592</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="1" t="s">
+      <c r="A533" s="6" t="s">
         <v>593</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8368,10 +8404,10 @@
         <v>594</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8379,10 +8415,10 @@
         <v>595</v>
       </c>
       <c r="B535" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8390,65 +8426,65 @@
         <v>596</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="6" t="s">
-        <v>24</v>
+      <c r="A537" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="B537" s="6" t="s">
-        <v>24</v>
+        <v>583</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B538" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B539" s="6" t="s">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B540" s="6" t="s">
         <v>253</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="6" t="s">
-        <v>597</v>
+        <v>28</v>
       </c>
       <c r="B541" s="6" t="s">
-        <v>597</v>
+        <v>253</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8456,10 +8492,10 @@
         <v>598</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8467,10 +8503,10 @@
         <v>599</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8478,87 +8514,87 @@
         <v>600</v>
       </c>
       <c r="B544" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="C544" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="545" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B545" s="1" t="s">
+      <c r="B545" s="6" t="s">
         <v>602</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>378</v>
+        <v>603</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C547" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B547" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>603</v>
-      </c>
     </row>
     <row r="548" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="9" t="s">
-        <v>46</v>
+      <c r="A548" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="1" t="s">
-        <v>43</v>
+      <c r="A549" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>605</v>
+        <v>43</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>390</v>
+        <v>43</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>291</v>
+        <v>606</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>292</v>
+        <v>390</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8569,15 +8605,15 @@
         <v>292</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="1" t="n">
-        <v>2</v>
+      <c r="A553" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>408</v>
+        <v>292</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>607</v>
@@ -8585,43 +8621,43 @@
     </row>
     <row r="554" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B554" s="1" t="s">
+      <c r="B555" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C554" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="555" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C555" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>394</v>
+        <v>291</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>608</v>
@@ -8629,43 +8665,43 @@
     </row>
     <row r="558" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B558" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C558" s="1" t="s">
+      <c r="B559" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="559" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="1" t="n">
+      <c r="C559" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B559" s="1" t="s">
+      <c r="B560" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C559" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="560" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="1" t="s">
+      <c r="C560" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B560" s="1" t="s">
+    </row>
+    <row r="561" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C560" s="1" t="s">
+      <c r="B561" s="1" t="s">
         <v>613</v>
-      </c>
-    </row>
-    <row r="561" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>614</v>
@@ -8673,68 +8709,68 @@
     </row>
     <row r="562" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C563" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="564" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="1" t="n">
-        <v>43440</v>
+      <c r="A565" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="1" t="s">
+      <c r="A566" s="1" t="n">
+        <v>43440</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C566" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="B566" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C566" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C567" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C567" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8742,32 +8778,32 @@
         <v>619</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>620</v>
+        <v>512</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="s">
-        <v>501</v>
+        <v>620</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B570" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B570" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="C570" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8775,10 +8811,10 @@
         <v>622</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8786,10 +8822,10 @@
         <v>623</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>509</v>
+        <v>621</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8800,7 +8836,7 @@
         <v>509</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8811,29 +8847,29 @@
         <v>509</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
-        <v>413</v>
+        <v>626</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>509</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
-        <v>626</v>
+        <v>413</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8841,32 +8877,32 @@
         <v>627</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>620</v>
+        <v>507</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
-        <v>517</v>
+        <v>628</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>507</v>
+        <v>621</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>628</v>
+        <v>517</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>507</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8877,70 +8913,70 @@
         <v>507</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="B581" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C581" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="582" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="9" t="s">
-        <v>291</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="9" t="s">
         <v>291</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C583" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C583" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="9" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="1" t="s">
-        <v>291</v>
+      <c r="A585" s="9" t="s">
+        <v>438</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C585" s="1" t="s">
+      <c r="C585" s="7" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
-        <v>396</v>
+        <v>291</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>397</v>
+        <v>292</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>632</v>
@@ -8948,35 +8984,35 @@
     </row>
     <row r="587" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>83</v>
+        <v>400</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
-        <v>291</v>
+        <v>401</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8984,32 +9020,32 @@
         <v>291</v>
       </c>
       <c r="B590" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C590" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="C590" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B591" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B591" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="C591" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="7" t="s">
+      <c r="A592" s="1" t="s">
         <v>635</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9020,7 +9056,7 @@
         <v>397</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9031,7 +9067,7 @@
         <v>397</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9042,7 +9078,7 @@
         <v>397</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9053,7 +9089,7 @@
         <v>397</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9064,7 +9100,7 @@
         <v>397</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9075,51 +9111,51 @@
         <v>397</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="9" t="s">
-        <v>371</v>
+      <c r="A599" s="7" t="s">
+        <v>642</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C599" s="9" t="s">
-        <v>642</v>
+        <v>397</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="9" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C600" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C601" s="9" t="s">
         <v>643</v>
-      </c>
-      <c r="B601" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="C601" s="9" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B602" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="B602" s="9" t="s">
-        <v>644</v>
-      </c>
       <c r="C602" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9127,43 +9163,43 @@
         <v>646</v>
       </c>
       <c r="B603" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C603" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="9" t="s">
-        <v>383</v>
+        <v>647</v>
       </c>
       <c r="B604" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C604" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="B605" s="1" t="s">
-        <v>83</v>
+        <v>383</v>
+      </c>
+      <c r="B605" s="9" t="s">
+        <v>645</v>
       </c>
       <c r="C605" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="B606" s="9" t="s">
-        <v>644</v>
+      <c r="B606" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C606" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9171,10 +9207,10 @@
         <v>649</v>
       </c>
       <c r="B607" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C607" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9182,10 +9218,10 @@
         <v>650</v>
       </c>
       <c r="B608" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C608" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9193,98 +9229,98 @@
         <v>651</v>
       </c>
       <c r="B609" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C609" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="9" t="n">
+      <c r="A610" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B610" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C610" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B610" s="1" t="s">
+      <c r="B611" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C610" s="9" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="611" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="B611" s="9" t="s">
-        <v>653</v>
-      </c>
       <c r="C611" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="9" t="s">
-        <v>391</v>
+        <v>653</v>
       </c>
       <c r="B612" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C612" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B613" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="B613" s="9" t="s">
-        <v>653</v>
-      </c>
       <c r="C613" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="9" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="B614" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C614" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="9" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="B615" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C615" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="9" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B616" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C616" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B617" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C617" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9292,10 +9328,10 @@
         <v>657</v>
       </c>
       <c r="B618" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C618" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,65 +9339,65 @@
         <v>658</v>
       </c>
       <c r="B619" s="9" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="C619" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="9" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="B620" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C620" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="9" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B621" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C621" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="4" t="s">
+      <c r="A622" s="9" t="s">
         <v>660</v>
       </c>
       <c r="B622" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C622" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="9" t="s">
+      <c r="A623" s="4" t="s">
         <v>661</v>
       </c>
       <c r="B623" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C623" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="1" t="s">
+      <c r="A624" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="B624" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C624" s="1" t="s">
-        <v>642</v>
+      <c r="B624" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C624" s="9" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9369,10 +9405,10 @@
         <v>663</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9380,10 +9416,10 @@
         <v>664</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>83</v>
+        <v>645</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9391,10 +9427,10 @@
         <v>665</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>644</v>
+        <v>83</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9402,43 +9438,43 @@
         <v>666</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>394</v>
+        <v>667</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>395</v>
+        <v>645</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>667</v>
+        <v>394</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
-        <v>291</v>
+        <v>668</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9446,10 +9482,10 @@
         <v>291</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9460,84 +9496,84 @@
         <v>292</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>389</v>
+        <v>46</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C639" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="B639" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C639" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C640" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C640" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9545,10 +9581,10 @@
         <v>672</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9556,10 +9592,10 @@
         <v>673</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9567,32 +9603,32 @@
         <v>674</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B644" s="6" t="s">
-        <v>4</v>
+      <c r="B644" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B645" s="1" t="s">
-        <v>7</v>
+      <c r="B645" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9600,32 +9636,32 @@
         <v>677</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B647" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C647" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="648" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="3" t="s">
-        <v>678</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9636,18 +9672,18 @@
         <v>292</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="1" t="s">
+      <c r="A650" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="B650" s="6" t="s">
-        <v>104</v>
+      <c r="B650" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9658,7 +9694,7 @@
         <v>104</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9669,73 +9705,73 @@
         <v>104</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="3" t="s">
+      <c r="A653" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B653" s="1" t="s">
+      <c r="B653" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B654" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C653" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="654" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="C654" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B655" s="1" t="s">
+      <c r="B656" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C655" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="656" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="B656" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C656" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B657" s="3" t="s">
-        <v>189</v>
+        <v>686</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="B658" s="1" t="s">
-        <v>26</v>
+        <v>188</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9746,40 +9782,40 @@
         <v>26</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="1" t="s">
-        <v>26</v>
+      <c r="A660" s="3" t="s">
+        <v>688</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>688</v>
+        <v>26</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="3" t="s">
+      <c r="A662" s="1" t="s">
         <v>689</v>
       </c>
       <c r="B662" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9790,7 +9826,7 @@
         <v>26</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9801,95 +9837,95 @@
         <v>26</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="B665" s="3" t="s">
+      <c r="B665" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B666" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C665" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="666" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B666" s="1" t="s">
+      <c r="C666" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B667" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C666" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="667" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B667" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C667" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="3" t="s">
-        <v>694</v>
+        <v>28</v>
       </c>
       <c r="B668" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B669" s="1" t="s">
+      <c r="B669" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="1" t="s">
+      <c r="A670" s="3" t="s">
         <v>696</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B672" s="6" t="s">
-        <v>48</v>
+        <v>695</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9900,29 +9936,29 @@
         <v>48</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="s">
-        <v>47</v>
+        <v>699</v>
       </c>
       <c r="B674" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="B675" s="1" t="s">
-        <v>579</v>
+      <c r="A675" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B675" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9930,10 +9966,10 @@
         <v>700</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9941,10 +9977,10 @@
         <v>701</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9952,10 +9988,10 @@
         <v>702</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9963,10 +9999,10 @@
         <v>703</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9974,32 +10010,32 @@
         <v>704</v>
       </c>
       <c r="B680" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B681" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C680" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="681" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B681" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="C681" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="3" t="s">
+      <c r="A682" s="1" t="s">
         <v>706</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10007,10 +10043,10 @@
         <v>707</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10018,65 +10054,65 @@
         <v>708</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>26</v>
+        <v>571</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="3" t="s">
-        <v>253</v>
+        <v>709</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="3" t="s">
-        <v>438</v>
+        <v>253</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="3" t="s">
-        <v>291</v>
+        <v>438</v>
       </c>
       <c r="B687" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="7" t="s">
-        <v>709</v>
+      <c r="A688" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="B688" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="B689" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C688" s="7" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="689" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B689" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C689" s="1" t="s">
-        <v>670</v>
+      <c r="C689" s="7" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10084,40 +10120,40 @@
         <v>711</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>26</v>
+        <v>598</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="s">
-        <v>505</v>
+        <v>712</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>712</v>
+        <v>671</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="s">
-        <v>291</v>
+        <v>505</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="s">
-        <v>698</v>
+        <v>291</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>48</v>
+        <v>292</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>713</v>
@@ -10125,13 +10161,13 @@
     </row>
     <row r="694" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="B694" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10142,7 +10178,7 @@
         <v>48</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10153,29 +10189,29 @@
         <v>48</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="4" t="s">
+      <c r="A697" s="1" t="s">
         <v>717</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>718</v>
+        <v>48</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C698" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="B698" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C698" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10186,7 +10222,7 @@
         <v>503</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10197,7 +10233,7 @@
         <v>503</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10205,32 +10241,32 @@
         <v>723</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>724</v>
+        <v>503</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B702" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B702" s="1" t="s">
-        <v>724</v>
-      </c>
       <c r="C702" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="4" t="s">
         <v>726</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>503</v>
+        <v>725</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10241,7 +10277,7 @@
         <v>503</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10249,10 +10285,10 @@
         <v>728</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>724</v>
+        <v>503</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10260,10 +10296,10 @@
         <v>729</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>503</v>
+        <v>725</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10274,7 +10310,7 @@
         <v>503</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10285,7 +10321,7 @@
         <v>503</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10296,7 +10332,7 @@
         <v>503</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10307,7 +10343,7 @@
         <v>503</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10315,10 +10351,10 @@
         <v>734</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>724</v>
+        <v>503</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10326,10 +10362,10 @@
         <v>735</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10337,10 +10373,10 @@
         <v>736</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10348,10 +10384,10 @@
         <v>737</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10359,10 +10395,10 @@
         <v>738</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10370,32 +10406,32 @@
         <v>739</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>503</v>
+        <v>725</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="4" t="s">
-        <v>432</v>
+        <v>740</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>718</v>
+        <v>503</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="4" t="s">
-        <v>740</v>
+        <v>432</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>503</v>
+        <v>719</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10403,21 +10439,21 @@
         <v>741</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>742</v>
+        <v>503</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="4" t="s">
-        <v>291</v>
+        <v>742</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10425,175 +10461,175 @@
         <v>291</v>
       </c>
       <c r="B721" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B722" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C721" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="722" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B722" s="1" t="s">
+      <c r="C722" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="C722" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="s">
-        <v>24</v>
+        <v>573</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="s">
-        <v>573</v>
+        <v>24</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="s">
-        <v>28</v>
+        <v>598</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="s">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="s">
-        <v>599</v>
+        <v>348</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="1" t="s">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>522</v>
+        <v>745</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="1" t="s">
-        <v>581</v>
+        <v>4</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="s">
-        <v>7</v>
+        <v>582</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="1" t="s">
-        <v>575</v>
+        <v>7</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10601,109 +10637,109 @@
         <v>584</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="1" t="s">
-        <v>15</v>
+        <v>585</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="1" t="s">
-        <v>582</v>
+        <v>15</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="s">
-        <v>104</v>
+        <v>586</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="s">
-        <v>586</v>
+        <v>19</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="s">
-        <v>21</v>
+        <v>587</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="s">
-        <v>576</v>
+        <v>21</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10711,10 +10747,10 @@
         <v>588</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10722,109 +10758,109 @@
         <v>589</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
-        <v>366</v>
+        <v>590</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
-        <v>577</v>
+        <v>366</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="s">
-        <v>26</v>
+        <v>578</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="s">
-        <v>578</v>
+        <v>48</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C753" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C755" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="1" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10832,32 +10868,32 @@
         <v>592</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C759" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10865,10 +10901,10 @@
         <v>594</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10876,87 +10912,87 @@
         <v>595</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>745</v>
+        <v>523</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="s">
-        <v>291</v>
+        <v>601</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>83</v>
+        <v>746</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="s">
-        <v>394</v>
+        <v>291</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="B768" s="4" t="s">
-        <v>747</v>
+      <c r="A768" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>748</v>
+        <v>524</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C769" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="B769" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C769" s="1" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10964,32 +11000,32 @@
         <v>750</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="4" t="s">
-        <v>431</v>
+        <v>751</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="4" t="s">
-        <v>751</v>
+        <v>431</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10997,21 +11033,21 @@
         <v>752</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
       <c r="C773" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B774" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="774" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B774" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C774" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11019,59 +11055,179 @@
         <v>291</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="C775" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="1" t="s">
-        <v>371</v>
+        <v>291</v>
       </c>
       <c r="B776" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>425</v>
+        <v>292</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B778" s="1" t="s">
+      <c r="B779" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C778" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="1" t="s">
+      <c r="C779" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B779" s="1" t="s">
+      <c r="B780" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C779" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="1555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C780" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C696"/>
+  <autoFilter ref="A1:C697"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11102,44 +11258,44 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/linelist_investigations/dictionary/cleaning_rules.xlsx
+++ b/linelist_investigations/dictionary/cleaning_rules.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="778">
   <si>
     <t xml:space="preserve">bad_spelling</t>
   </si>
@@ -2256,6 +2256,9 @@
   </si>
   <si>
     <t xml:space="preserve">non_enregistre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son_ami</t>
   </si>
   <si>
     <t xml:space="preserve">evd_status</t>
@@ -2522,10 +2525,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C790"/>
+  <dimension ref="A1:C792"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A397" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A417" activeCellId="0" sqref="A417"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A697" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B722" activeCellId="0" sqref="B722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7090,7 +7093,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
         <v>507</v>
       </c>
@@ -7101,7 +7104,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
         <v>518</v>
       </c>
@@ -10467,34 +10470,34 @@
         <v>720</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B722" s="1" t="s">
+      <c r="B723" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C722" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="723" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B723" s="1" t="s">
+      <c r="C723" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="C723" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C724" s="1" t="s">
         <v>524</v>
@@ -10502,10 +10505,10 @@
     </row>
     <row r="725" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="s">
-        <v>24</v>
+        <v>573</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>524</v>
@@ -10513,10 +10516,10 @@
     </row>
     <row r="726" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="s">
-        <v>574</v>
+        <v>24</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>524</v>
@@ -10524,10 +10527,10 @@
     </row>
     <row r="727" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>524</v>
@@ -10535,10 +10538,10 @@
     </row>
     <row r="728" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>524</v>
@@ -10546,10 +10549,10 @@
     </row>
     <row r="729" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="s">
-        <v>28</v>
+        <v>598</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>524</v>
@@ -10557,10 +10560,10 @@
     </row>
     <row r="730" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>524</v>
@@ -10568,10 +10571,10 @@
     </row>
     <row r="731" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="s">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>524</v>
@@ -10579,10 +10582,10 @@
     </row>
     <row r="732" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="1" t="s">
-        <v>600</v>
+        <v>348</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>524</v>
@@ -10590,10 +10593,10 @@
     </row>
     <row r="733" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="1" t="s">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>523</v>
+        <v>746</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>524</v>
@@ -10601,7 +10604,7 @@
     </row>
     <row r="734" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="s">
-        <v>582</v>
+        <v>4</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>523</v>
@@ -10612,7 +10615,7 @@
     </row>
     <row r="735" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="1" t="s">
-        <v>7</v>
+        <v>582</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>523</v>
@@ -10623,7 +10626,7 @@
     </row>
     <row r="736" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="s">
-        <v>576</v>
+        <v>7</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>523</v>
@@ -10634,7 +10637,7 @@
     </row>
     <row r="737" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="1" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>523</v>
@@ -10645,7 +10648,7 @@
     </row>
     <row r="738" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>523</v>
@@ -10656,7 +10659,7 @@
     </row>
     <row r="739" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="1" t="s">
-        <v>15</v>
+        <v>585</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>523</v>
@@ -10667,7 +10670,7 @@
     </row>
     <row r="740" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="s">
-        <v>583</v>
+        <v>15</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>523</v>
@@ -10678,7 +10681,7 @@
     </row>
     <row r="741" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>523</v>
@@ -10689,7 +10692,7 @@
     </row>
     <row r="742" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="s">
-        <v>104</v>
+        <v>586</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>523</v>
@@ -10700,7 +10703,7 @@
     </row>
     <row r="743" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B743" s="1" t="s">
         <v>523</v>
@@ -10711,7 +10714,7 @@
     </row>
     <row r="744" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="s">
-        <v>587</v>
+        <v>19</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>523</v>
@@ -10722,7 +10725,7 @@
     </row>
     <row r="745" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="s">
-        <v>21</v>
+        <v>587</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>523</v>
@@ -10733,7 +10736,7 @@
     </row>
     <row r="746" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="s">
-        <v>577</v>
+        <v>21</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>523</v>
@@ -10744,7 +10747,7 @@
     </row>
     <row r="747" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>523</v>
@@ -10755,7 +10758,7 @@
     </row>
     <row r="748" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>523</v>
@@ -10766,7 +10769,7 @@
     </row>
     <row r="749" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>523</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="750" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
-        <v>366</v>
+        <v>590</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>523</v>
@@ -10788,7 +10791,7 @@
     </row>
     <row r="751" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="s">
-        <v>578</v>
+        <v>366</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>523</v>
@@ -10799,7 +10802,7 @@
     </row>
     <row r="752" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="s">
-        <v>26</v>
+        <v>578</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>523</v>
@@ -10810,7 +10813,7 @@
     </row>
     <row r="753" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>523</v>
@@ -10821,7 +10824,7 @@
     </row>
     <row r="754" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="s">
-        <v>579</v>
+        <v>48</v>
       </c>
       <c r="B754" s="1" t="s">
         <v>523</v>
@@ -10832,7 +10835,7 @@
     </row>
     <row r="755" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>523</v>
@@ -10843,7 +10846,7 @@
     </row>
     <row r="756" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>523</v>
@@ -10854,7 +10857,7 @@
     </row>
     <row r="757" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="1" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B757" s="1" t="s">
         <v>523</v>
@@ -10865,7 +10868,7 @@
     </row>
     <row r="758" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>523</v>
@@ -10876,7 +10879,7 @@
     </row>
     <row r="759" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>523</v>
@@ -10887,7 +10890,7 @@
     </row>
     <row r="760" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>523</v>
@@ -10898,7 +10901,7 @@
     </row>
     <row r="761" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="1" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="B761" s="1" t="s">
         <v>523</v>
@@ -10909,7 +10912,7 @@
     </row>
     <row r="762" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>523</v>
@@ -10920,7 +10923,7 @@
     </row>
     <row r="763" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B763" s="1" t="s">
         <v>523</v>
@@ -10931,7 +10934,7 @@
     </row>
     <row r="764" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>523</v>
@@ -10942,7 +10945,7 @@
     </row>
     <row r="765" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="B765" s="1" t="s">
         <v>523</v>
@@ -10953,10 +10956,10 @@
     </row>
     <row r="766" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>746</v>
+        <v>523</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>524</v>
@@ -10964,10 +10967,10 @@
     </row>
     <row r="767" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="s">
-        <v>291</v>
+        <v>601</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>83</v>
+        <v>747</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>524</v>
@@ -10975,7 +10978,7 @@
     </row>
     <row r="768" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="1" t="s">
-        <v>394</v>
+        <v>291</v>
       </c>
       <c r="B768" s="1" t="s">
         <v>83</v>
@@ -10985,110 +10988,110 @@
       </c>
     </row>
     <row r="769" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="B769" s="4" t="s">
+      <c r="A769" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C769" s="1" t="s">
+      <c r="B770" s="1" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="770" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="4" t="s">
+      <c r="C770" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B770" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C770" s="1" t="s">
-        <v>749</v>
-      </c>
     </row>
     <row r="771" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="4" t="s">
+      <c r="A771" s="1" t="s">
         <v>751</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="4" t="s">
+      <c r="A772" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B772" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C772" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="773" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="4" t="s">
-        <v>752</v>
       </c>
       <c r="B773" s="1" t="s">
         <v>722</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="4" t="s">
+      <c r="A774" s="1" t="s">
         <v>753</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="C774" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="1" t="s">
-        <v>291</v>
+        <v>487</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>83</v>
+        <v>749</v>
       </c>
       <c r="C775" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B776" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C776" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="777" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B777" s="1" t="s">
-        <v>292</v>
+      <c r="B777" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C777" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="1" t="s">
-        <v>427</v>
+        <v>291</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>425</v>
+        <v>292</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>755</v>
@@ -11096,10 +11099,10 @@
     </row>
     <row r="779" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="1" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>422</v>
+        <v>292</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>755</v>
@@ -11107,123 +11110,145 @@
     </row>
     <row r="780" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="1" t="s">
-        <v>291</v>
+        <v>427</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B781" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C781" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="C781" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="s">
-        <v>758</v>
+        <v>291</v>
       </c>
       <c r="B782" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C782" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="C782" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="1" t="s">
-        <v>759</v>
+        <v>427</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C783" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C784" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="s">
-        <v>394</v>
+        <v>765</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>83</v>
+        <v>766</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B790" s="1" t="s">
+      <c r="B792" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C790" s="1" t="s">
-        <v>757</v>
+      <c r="C792" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -11247,7 +11272,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="B722 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11258,44 +11283,44 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
